--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>state:</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>viewportRows</t>
+  </si>
+  <si>
+    <t>arr [y,y,y,y]</t>
   </si>
 </sst>
 </file>
@@ -785,7 +791,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,69 +804,69 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
@@ -889,7 +895,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="12"/>
@@ -920,7 +926,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="12"/>
@@ -951,7 +957,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="12"/>
@@ -982,7 +988,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="12"/>
@@ -1013,7 +1019,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="11"/>
@@ -1044,7 +1050,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="12"/>
@@ -1075,7 +1081,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="11"/>
@@ -1106,7 +1112,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="11"/>
@@ -1137,7 +1143,7 @@
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="30"/>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -1199,7 +1205,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1221,11 +1227,16 @@
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
       <c r="U13" s="11"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -1250,7 +1261,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
@@ -1278,7 +1289,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="12"/>
@@ -1306,7 +1317,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="5"/>
@@ -1334,7 +1345,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
@@ -1359,7 +1370,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
@@ -1384,7 +1395,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
@@ -1412,7 +1423,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
@@ -1443,7 +1454,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="11"/>
@@ -1471,7 +1482,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
@@ -1499,7 +1510,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="12"/>
@@ -1530,7 +1541,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="11"/>
@@ -1558,7 +1569,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="12"/>
@@ -1586,7 +1597,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="12"/>
@@ -1613,7 +1624,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="12"/>
@@ -1640,7 +1651,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="11"/>
@@ -1667,7 +1678,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
@@ -1694,7 +1705,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
@@ -1720,7 +1731,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="11"/>
@@ -1746,7 +1757,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
@@ -1774,7 +1785,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="11"/>
@@ -1802,7 +1813,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="11"/>
@@ -1830,7 +1841,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="11"/>
@@ -1858,7 +1869,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="12"/>
@@ -1886,7 +1897,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="12"/>
@@ -1913,7 +1924,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
@@ -1940,7 +1951,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
@@ -1967,7 +1978,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
@@ -1994,7 +2005,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
@@ -2021,7 +2032,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="12"/>
@@ -2048,7 +2059,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="12"/>
@@ -2073,7 +2084,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="12"/>
@@ -2098,7 +2109,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="5"/>
@@ -2123,7 +2134,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="12"/>
@@ -2148,7 +2159,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="12"/>
@@ -2173,7 +2184,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
@@ -2198,7 +2209,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="12"/>
@@ -2223,7 +2234,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="12"/>
@@ -2248,7 +2259,7 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="12"/>
@@ -2273,7 +2284,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="12"/>
@@ -2298,7 +2309,7 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="12"/>
@@ -2323,7 +2334,7 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="12"/>
@@ -2348,7 +2359,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="12"/>
@@ -2373,7 +2384,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="12"/>
@@ -2398,7 +2409,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="12"/>
@@ -2423,7 +2434,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="12"/>
@@ -2448,7 +2459,7 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="5"/>
@@ -2473,7 +2484,7 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="12"/>
@@ -2498,7 +2509,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="12"/>
@@ -2523,7 +2534,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="12"/>
@@ -2548,7 +2559,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="14"/>
       <c r="C64" s="12"/>
@@ -2573,7 +2584,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="12"/>
@@ -2598,7 +2609,7 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="12"/>
@@ -2623,7 +2634,7 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="12"/>
@@ -2648,7 +2659,7 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="12"/>
@@ -2673,7 +2684,7 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="12"/>
@@ -2698,7 +2709,7 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="12"/>
@@ -2723,7 +2734,7 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="12"/>
@@ -2748,7 +2759,7 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="11"/>
@@ -2773,7 +2784,7 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="12"/>
@@ -2798,7 +2809,7 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="12"/>
@@ -2823,7 +2834,7 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="12"/>
@@ -2848,7 +2859,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="12"/>
@@ -2873,7 +2884,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="12"/>
@@ -2898,7 +2909,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="12"/>
@@ -2923,7 +2934,7 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="12"/>
@@ -2948,7 +2959,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="12"/>
@@ -2973,7 +2984,7 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="12"/>
@@ -2998,7 +3009,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="12"/>
@@ -3023,7 +3034,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="12"/>
@@ -3048,7 +3059,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="12"/>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="12"/>
@@ -3098,7 +3109,7 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="12"/>
@@ -3123,7 +3134,7 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="12"/>
@@ -3148,7 +3159,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="12"/>
@@ -3173,7 +3184,7 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="12"/>
@@ -3198,7 +3209,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="12"/>
@@ -3223,7 +3234,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="12"/>
@@ -3248,7 +3259,7 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="12"/>
@@ -3273,7 +3284,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="12"/>
@@ -3298,7 +3309,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="12"/>
@@ -3323,7 +3334,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="12"/>
@@ -3348,7 +3359,7 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="12"/>
@@ -3373,7 +3384,7 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="12"/>
@@ -3398,7 +3409,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="12"/>
@@ -3423,7 +3434,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="12"/>
@@ -3448,7 +3459,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="12"/>
@@ -3473,7 +3484,7 @@
     </row>
     <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="20"/>

--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -508,6 +508,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -790,13 +792,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="21" width="3.77734375" customWidth="1"/>
     <col min="24" max="24" width="23.88671875" customWidth="1"/>
     <col min="25" max="25" width="48.21875" customWidth="1"/>
@@ -956,7 +958,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="26"/>
@@ -987,7 +989,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="26"/>
@@ -1018,7 +1020,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="26"/>
@@ -1049,7 +1051,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="26"/>
@@ -1080,7 +1082,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="39"/>
@@ -1111,7 +1113,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="29"/>

--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -793,7 +793,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1113,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="29"/>
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="11"/>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="17"/>
@@ -1262,7 +1262,7 @@
       <c r="U14" s="34"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="15"/>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="15"/>

--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -793,7 +793,8 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1291,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="15"/>
@@ -1318,7 +1319,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="15"/>
@@ -1346,7 +1347,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="14"/>
@@ -1371,7 +1372,7 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="14"/>
@@ -1396,7 +1397,7 @@
       <c r="U19" s="13"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" s="14"/>
@@ -1424,7 +1425,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="14"/>
@@ -1455,7 +1456,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="14"/>
@@ -1483,7 +1484,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="14"/>
@@ -1511,7 +1512,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="14"/>
@@ -1542,7 +1543,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="15"/>
@@ -1570,7 +1571,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="15"/>
@@ -1598,7 +1599,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="15"/>
@@ -1625,7 +1626,7 @@
       <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="15"/>
@@ -1652,7 +1653,7 @@
       <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="15"/>
@@ -1679,7 +1680,7 @@
       <c r="Y29" s="7"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="14"/>
@@ -1706,7 +1707,7 @@
       <c r="Y30" s="7"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="14"/>
@@ -1732,7 +1733,7 @@
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="15"/>
@@ -1758,7 +1759,7 @@
       <c r="Y32" s="7"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="14"/>
@@ -1786,7 +1787,7 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="41">
         <v>32</v>
       </c>
       <c r="B34" s="14"/>

--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -793,8 +793,8 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y45" sqref="Y45"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,7 +1222,7 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -1252,8 +1252,8 @@
       <c r="J14" s="19"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="19"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -1275,10 +1275,10 @@
       <c r="H15" s="12"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="11"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -1303,10 +1303,10 @@
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -1330,12 +1330,12 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="11"/>
@@ -1359,10 +1359,10 @@
       <c r="H18" s="11"/>
       <c r="I18" s="5"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -1387,7 +1387,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="12"/>
@@ -1413,7 +1413,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="2"/>

--- a/src/applications/sushkevich/map.xlsx
+++ b/src/applications/sushkevich/map.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>state:</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>arr [y,y,y,y]</t>
   </si>
+  <si>
+    <t>зелёных</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,7 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -510,6 +512,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,8 +799,8 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1027,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="26"/>
@@ -1086,7 +1092,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
@@ -1106,7 +1112,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="12"/>
       <c r="U9" s="27"/>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="Y9" t="s">
@@ -1148,7 +1154,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
       <c r="E11" s="30"/>
@@ -1167,8 +1173,8 @@
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="33"/>
-      <c r="X11" s="38" t="s">
+      <c r="U11" s="32"/>
+      <c r="X11" s="37" t="s">
         <v>19</v>
       </c>
       <c r="Y11" t="s">
@@ -1260,7 +1266,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="34"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -1314,7 +1320,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="11"/>
       <c r="U16" s="13"/>
-      <c r="X16" s="37" t="s">
+      <c r="X16" s="36" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1342,7 +1348,7 @@
       <c r="S17" s="12"/>
       <c r="T17" s="11"/>
       <c r="U17" s="13"/>
-      <c r="X17" s="38" t="s">
+      <c r="X17" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1551,7 +1557,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="35"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="12"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -1787,7 +1793,7 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <v>32</v>
       </c>
       <c r="B34" s="14"/>
@@ -1832,7 +1838,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="12"/>
       <c r="O35" s="11"/>
-      <c r="P35" s="12"/>
+      <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
@@ -1877,12 +1883,12 @@
       <c r="B37" s="15"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -1892,7 +1898,7 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
+      <c r="T37" s="11"/>
       <c r="U37" s="16"/>
       <c r="W37" s="7"/>
       <c r="Y37" s="7"/>
@@ -1905,22 +1911,22 @@
       <c r="B38" s="15"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="11"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
+      <c r="T38" s="11"/>
       <c r="U38" s="13"/>
       <c r="W38" s="7"/>
       <c r="Z38" s="7"/>
@@ -1929,25 +1935,25 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
+      <c r="T39" s="11"/>
       <c r="U39" s="13"/>
       <c r="W39" s="7"/>
       <c r="Z39" s="7"/>
@@ -1957,25 +1963,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="13"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="16"/>
       <c r="W40" s="7"/>
       <c r="Z40" s="7"/>
     </row>
@@ -1984,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="11"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
-      <c r="U41" s="13"/>
+      <c r="U41" s="16"/>
       <c r="W41" s="7"/>
       <c r="Z41" s="7"/>
     </row>
@@ -2011,22 +2017,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="9"/>
@@ -2038,25 +2044,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="5"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
+      <c r="R43" s="11"/>
       <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="13"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="16"/>
       <c r="W43" s="7"/>
       <c r="Z43" s="7"/>
     </row>
@@ -2068,21 +2074,21 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="M44" s="11"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
       <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
+      <c r="T44" s="11"/>
       <c r="U44" s="13"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -2090,24 +2096,24 @@
         <v>43</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
       <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
+      <c r="R45" s="11"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
+      <c r="T45" s="11"/>
       <c r="U45" s="13"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -2118,21 +2124,21 @@
       <c r="C46" s="5"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="12"/>
       <c r="M46" s="11"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
+      <c r="P46" s="11"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
       <c r="U46" s="13"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
@@ -2140,20 +2146,20 @@
         <v>45</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
+      <c r="P47" s="11"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="11"/>
       <c r="S47" s="12"/>
@@ -2166,109 +2172,115 @@
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
+      <c r="P48" s="11"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="13"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="16"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="12"/>
+      <c r="P49" s="11"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="13"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U49" s="16"/>
+      <c r="W49">
+        <v>13</v>
+      </c>
+      <c r="X49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="13"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="16"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
+      <c r="S51" s="11"/>
       <c r="T51" s="12"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="11"/>
@@ -2276,191 +2288,191 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="13"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="16"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
       <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
+      <c r="Q53" s="11"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
-      <c r="U53" s="13"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U53" s="16"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
+      <c r="M55" s="11"/>
       <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
+      <c r="O55" s="11"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
+      <c r="R55" s="11"/>
       <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
+      <c r="T55" s="11"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="11"/>
       <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
       <c r="T58" s="12"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="13"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="16"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2469,120 +2481,120 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="4"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="11"/>
       <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
+      <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="12"/>
-      <c r="U60" s="13"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U60" s="16"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
+      <c r="I61" s="11"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="K61" s="11"/>
       <c r="L61" s="12"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="4"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
       <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
+      <c r="R61" s="11"/>
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
-      <c r="U61" s="13"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U61" s="16"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
       <c r="L62" s="12"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
+      <c r="R62" s="11"/>
       <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="13"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T62" s="11"/>
+      <c r="U62" s="16"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="12"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
       <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
+      <c r="T63" s="11"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" s="14"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
+      <c r="T64" s="11"/>
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -2590,24 +2602,24 @@
         <v>63</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="12"/>
       <c r="H65" s="11"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="11"/>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
       <c r="U65" s="13"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -2615,23 +2627,23 @@
         <v>64</v>
       </c>
       <c r="B66" s="14"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
+      <c r="P66" s="11"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
+      <c r="S66" s="11"/>
       <c r="T66" s="12"/>
       <c r="U66" s="13"/>
     </row>
@@ -2639,24 +2651,24 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="12"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
       <c r="T67" s="12"/>
       <c r="U67" s="13"/>
     </row>
@@ -2664,147 +2676,147 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="14"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
+      <c r="R68" s="11"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
-      <c r="U68" s="13"/>
+      <c r="U68" s="16"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="13"/>
+      <c r="U69" s="16"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
+      <c r="Q70" s="11"/>
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
-      <c r="U70" s="13"/>
+      <c r="U70" s="16"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
+      <c r="Q71" s="11"/>
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="13"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="16"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="12"/>
+      <c r="Q72" s="11"/>
       <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
       <c r="U72" s="13"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="12"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
+      <c r="Q73" s="11"/>
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
@@ -2814,50 +2826,50 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="14"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
+      <c r="K74" s="11"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
       <c r="U74" s="13"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="K75" s="11"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
+      <c r="T75" s="11"/>
       <c r="U75" s="13"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -2866,20 +2878,20 @@
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="K76" s="11"/>
       <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
+      <c r="M76" s="11"/>
       <c r="N76" s="11"/>
-      <c r="O76" s="12"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
+      <c r="Q76" s="11"/>
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" s="5"/>
@@ -2889,44 +2901,44 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
+      <c r="K77" s="11"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="11"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
       <c r="U77" s="13"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
       <c r="O78" s="12"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -2939,19 +2951,19 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
+      <c r="N79" s="11"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -2964,76 +2976,76 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="14"/>
+      <c r="B80" s="15"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
+      <c r="N80" s="11"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="13"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="16"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="15"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
+      <c r="K81" s="11"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
+      <c r="Q81" s="11"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
-      <c r="U81" s="13"/>
+      <c r="U81" s="16"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
+      <c r="M82" s="11"/>
       <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="13"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="16"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -3043,20 +3055,20 @@
       <c r="C83" s="12"/>
       <c r="D83" s="5"/>
       <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="12"/>
       <c r="I83" s="11"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
       <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
+      <c r="Q83" s="11"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
+      <c r="S83" s="11"/>
       <c r="T83" s="12"/>
       <c r="U83" s="13"/>
     </row>
@@ -3064,151 +3076,151 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="5"/>
-      <c r="O84" s="12"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
+      <c r="Q84" s="11"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="13"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="16"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="14"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
+      <c r="N85" s="11"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
-      <c r="U85" s="13"/>
+      <c r="U85" s="16"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="12"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="K86" s="11"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="N86" s="11"/>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
+      <c r="R86" s="11"/>
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
-      <c r="U86" s="13"/>
+      <c r="U86" s="16"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" s="14"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
+      <c r="K87" s="11"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
+      <c r="R87" s="11"/>
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
-      <c r="U87" s="13"/>
+      <c r="U87" s="16"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" s="14"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="O88" s="11"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
+      <c r="R88" s="11"/>
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
-      <c r="U88" s="13"/>
+      <c r="U88" s="16"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" s="14"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
       <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
-      <c r="U89" s="13"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="16"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -3216,15 +3228,15 @@
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
       <c r="O90" s="12"/>
@@ -3232,82 +3244,82 @@
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
+      <c r="T90" s="11"/>
       <c r="U90" s="13"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
+      <c r="L91" s="11"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
       <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="13"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="16"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="14"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
+      <c r="O92" s="11"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
+      <c r="R92" s="11"/>
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
-      <c r="U92" s="13"/>
+      <c r="U92" s="16"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="12"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="E93" s="11"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="12"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
+      <c r="O93" s="11"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
       <c r="U93" s="9"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -3315,19 +3327,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="14"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="11"/>
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
+      <c r="O94" s="11"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
@@ -3339,175 +3351,175 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="12"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-      <c r="L95" s="12"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="O95" s="11"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="11"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="13"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="16"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="14"/>
+      <c r="B96" s="15"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-      <c r="L96" s="12"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
+      <c r="O96" s="11"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
+      <c r="R96" s="11"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
-      <c r="U96" s="13"/>
+      <c r="U96" s="16"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="12"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="E97" s="11"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="12"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
       <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
+      <c r="R97" s="11"/>
       <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="13"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="16"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" s="14"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="E98" s="11"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="12"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="11"/>
       <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
+      <c r="T98" s="11"/>
       <c r="U98" s="13"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="12"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="E99" s="11"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
+      <c r="T99" s="11"/>
       <c r="U99" s="13"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="14"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="E100" s="11"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="42"/>
       <c r="L100" s="11"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
+      <c r="O100" s="11"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
+      <c r="T100" s="11"/>
       <c r="U100" s="13"/>
     </row>
     <row r="101" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="20"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="44"/>
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
+      <c r="O101" s="44"/>
+      <c r="P101" s="44"/>
       <c r="Q101" s="6"/>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
+      <c r="R101" s="44"/>
+      <c r="S101" s="44"/>
+      <c r="T101" s="44"/>
       <c r="U101" s="21"/>
     </row>
   </sheetData>
